--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -1,37 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B04FDE-33A1-4999-92ED-1ADD482D78E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11616" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sau khi nộp đơn" sheetId="6" r:id="rId2"/>
-    <sheet name="Sau khi cấp bằng" sheetId="12" r:id="rId3"/>
+    <sheet name="Yêu cầu từ thằng câu hỏi" sheetId="13" r:id="rId3"/>
+    <sheet name="Sau khi cấp bằng" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Hong Tuyen</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M25" authorId="0" shapeId="0">
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0" shapeId="0">
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -343,55 +350,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C42" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được chấp nhận cấp bằng thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Provisional Refusal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D45" authorId="0" shapeId="0">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -439,55 +446,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C51" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tự động 10 năm tính từ  ngày ưu tiên sớm nhất (fpriority date). Nếu Đơn nào không có ngày priority date thì lấy ngày nộp đơn (filing date)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Granting Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="0" shapeId="0">
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -535,55 +542,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C64" authorId="0" shapeId="0">
+    <comment ref="M57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Khách hàng review, cho ý kiến và gửi lại cho Luật sư của đúng case code tương ứng (có được không???)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Publication Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -607,319 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C70" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-nếu chưa được chấp nhận cấp bằng thì điền vào nội dung từ chối phía dưới</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Provisional Refusal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C73" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D76" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C82" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-tự động 10 năm tính từ  ngày ưu tiên sớm nhất (fpriority date). Nếu Đơn nào không có ngày priority date thì lấy ngày nộp đơn (filing date)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C83" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Granting Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C85" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Khách hàng review, cho ý kiến và gửi lại cho Luật sư của đúng case code tương ứng (có được không???)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-nếu khách hàng chưa muốn trả lời ngay thì có thể chọn save và hệ thống vẫn ghi nhận và nhắc chưa nhận được phản hồi của KH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C93" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Publication Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C95" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D98" authorId="0" shapeId="0">
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
       <text>
         <r>
           <rPr>
@@ -948,12 +643,310 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Hong Tuyen</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Le Thi Hong Tuyen</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -977,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1001,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1121,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0" shapeId="0">
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0" shapeId="0">
+    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0" shapeId="0">
+    <comment ref="F46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0">
+    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0" shapeId="0">
+    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0" shapeId="0">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0" shapeId="0">
+    <comment ref="F57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G60" authorId="0" shapeId="0">
+    <comment ref="G60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="0" shapeId="0">
+    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="0" shapeId="0">
+    <comment ref="F66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="0" shapeId="0">
+    <comment ref="G69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F76" authorId="0" shapeId="0">
+    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1625,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G79" authorId="0" shapeId="0">
+    <comment ref="G79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0" shapeId="0">
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1673,7 +1666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="0" shapeId="0">
+    <comment ref="F85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G88" authorId="0" shapeId="0">
+    <comment ref="G88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="0" shapeId="0">
+    <comment ref="F92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1745,7 +1738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0">
+    <comment ref="F94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1769,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G97" authorId="0" shapeId="0">
+    <comment ref="G97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1793,7 +1786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F101" authorId="0" shapeId="0">
+    <comment ref="F101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1817,7 +1810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F102" authorId="0" shapeId="0">
+    <comment ref="F102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1841,7 +1834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F104" authorId="0" shapeId="0">
+    <comment ref="F104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1865,7 +1858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G107" authorId="0" shapeId="0">
+    <comment ref="G107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1894,7 +1887,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="165">
   <si>
     <t>Luật sư</t>
   </si>
@@ -2225,9 +2218,6 @@
     <t>TB Nội dung</t>
   </si>
   <si>
-    <t>Sửa Đơn</t>
-  </si>
-  <si>
     <t>Chuyển nhượng Đơn</t>
   </si>
   <si>
@@ -2370,12 +2360,36 @@
   </si>
   <si>
     <t>Sửa Lixawng</t>
+  </si>
+  <si>
+    <t>Sửa Đơn bất kỳ lúc nào</t>
+  </si>
+  <si>
+    <t>Nó là 1 đơn mới, phát sinh từ thằng câu hỏi nguồn từ đơn 2a</t>
+  </si>
+  <si>
+    <t>yêu cầu chuyển nhượng đơn số A1B2C3 cho ai</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>loại</t>
+  </si>
+  <si>
+    <t>Chuyện nhượng, sửa đơn, khiếu nại</t>
+  </si>
+  <si>
+    <t>SỐ đơn</t>
+  </si>
+  <si>
+    <t>Bo search, cho khách hàng từ request đơn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2724,6 +2738,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2734,6 +2759,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2757,13 +2797,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2772,35 +2812,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2827,12 +2841,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2871,12 +2891,18 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>515390</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>13854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvPr id="18" name="Elbow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2918,12 +2944,18 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>308958</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>56803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvPr id="20" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2972,7 +3004,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvPr id="23" name="Elbow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3021,7 +3059,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvPr id="26" name="Elbow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3059,18 +3103,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>332509</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>27710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581891</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>83128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Elbow Connector 26"/>
+        <xdr:cNvPr id="27" name="Elbow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3108,18 +3158,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>6236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>592282</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>61654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Elbow Connector 27"/>
+        <xdr:cNvPr id="28" name="Elbow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3168,7 +3224,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+        <xdr:cNvPr id="31" name="Elbow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3218,7 +3280,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Elbow Connector 33"/>
+        <xdr:cNvPr id="34" name="Elbow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3254,18 +3322,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>112915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>125615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
+        <xdr:cNvPr id="36" name="Elbow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3304,18 +3378,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3351,18 +3431,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>120535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Elbow Connector 38"/>
+        <xdr:cNvPr id="39" name="Elbow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3401,18 +3487,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1432560</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1440180</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3449,18 +3541,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>27710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>83128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvPr id="16" name="Elbow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3509,159 +3607,18 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvPr id="19" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3506585" y="2589415"/>
-          <a:ext cx="3708862" cy="55418"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -515"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306878</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>35330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>90748</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3499658" y="8447810"/>
-          <a:ext cx="3708862" cy="55418"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -515"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314498</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>20090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>75508</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3507278" y="10444250"/>
-          <a:ext cx="3708862" cy="55418"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -515"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>42950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>98368</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552998" y="12478790"/>
           <a:ext cx="3708862" cy="55418"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3955,29 +3912,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -3985,24 +3942,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4019,18 +3976,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -4050,7 +4007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4058,7 +4015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4066,7 +4023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4074,7 +4031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4082,8 +4039,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -4103,12 +4060,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4116,7 +4073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4124,66 +4081,66 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4203,7 +4160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -4220,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -4237,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -4265,28 +4222,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>88</v>
       </c>
@@ -4298,75 +4255,75 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="35" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
@@ -4380,50 +4337,50 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
@@ -4431,44 +4388,44 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="K18" s="59" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="K18" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="24"/>
@@ -4478,40 +4435,40 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="26"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="K19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+        <v>112</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="55"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="56"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -4532,34 +4489,34 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="K22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K23" s="22"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
         <v>50</v>
       </c>
@@ -4569,7 +4526,7 @@
       <c r="K24" s="22"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4588,42 +4545,42 @@
       </c>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="K26" s="22"/>
       <c r="Q26" s="27"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
       <c r="K27" s="22"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="K28" s="10"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -4632,24 +4589,24 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="55"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>52</v>
       </c>
@@ -4663,113 +4620,102 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="34" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="34" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="T34" s="55"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="S35" s="56"/>
-      <c r="T35" s="57"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="1" t="s">
+      <c r="T34" s="45"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S35" s="46"/>
+      <c r="T35" s="47"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="21"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="19"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="20"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42"/>
+        <v>66</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="55"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="56"/>
+      <c r="K41" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="O41" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>52</v>
       </c>
@@ -4782,254 +4728,281 @@
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43"/>
+      <c r="K42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45"/>
+      <c r="C43" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="K43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D45" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>5</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>92</v>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>8</v>
+      </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="21"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50"/>
+        <v>73</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="26"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+      <c r="K50" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" s="27"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="21"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="K51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="27"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="19"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="20"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53" s="14" t="s">
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="27"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="55"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="56"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="27"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="9" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54" s="6" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="K54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="D56" s="9" t="s">
+      <c r="L54" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="27"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="K55" s="22"/>
+      <c r="Q55" s="27"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K56" s="22"/>
+      <c r="Q56" s="27"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E57" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>6</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>99</v>
+      <c r="K57" s="22"/>
+      <c r="M57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q57" s="27"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K58" s="10"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="28"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>9</v>
+      </c>
       <c r="B60" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="21"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61"/>
+        <v>68</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="21"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="58"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62"/>
+        <v>69</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="19"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="20"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C63" s="55"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="56"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>52</v>
       </c>
@@ -5042,440 +5015,37 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
-      <c r="S64" s="58"/>
-      <c r="T64" s="58"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="58"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C65" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="S67" s="58"/>
-      <c r="T67" s="58"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B70" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="37"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="40"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C72" s="41"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-      <c r="K72" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="P72" s="46"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B73" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="K73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B74" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="K74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D76" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
-        <v>8</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="26"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B81" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-      <c r="K81" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q81" s="27"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B82" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="37"/>
-      <c r="K82" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="27"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B83" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="40"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="27"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="27"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="K85" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L85" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="27"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B86" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="K86" s="22"/>
-      <c r="Q86" s="27"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K87" s="22"/>
-      <c r="Q87" s="27"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D88" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K88" s="22"/>
-      <c r="M88" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q88" s="27"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K89" s="10"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="28"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
-        <v>9</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B92" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="37"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B93" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="40"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C94" s="41"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="43"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B95" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D98" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G94"/>
-    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="L19:P20"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C65:G65"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
@@ -5483,28 +5053,26 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L19:P20"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
     <mergeCell ref="C29:G30"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="O72:P74"/>
-    <mergeCell ref="K72:K74"/>
-    <mergeCell ref="L82:P83"/>
-    <mergeCell ref="L85:P85"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G72"/>
-    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G53"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="O41:P43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L51:P52"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5514,27 +5082,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF56BAEA-CB95-4607-ABE0-9B91DB929DE5}">
+  <dimension ref="A2:T39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="19"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="20"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>159</v>
+      </c>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>162</v>
+      </c>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="21"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="21"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="19"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="20"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="D39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>88</v>
       </c>
@@ -5546,47 +5478,47 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="H3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="I3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="N4" s="10"/>
@@ -5597,18 +5529,18 @@
       <c r="S4" s="25"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="E5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="1" t="s">
         <v>91</v>
       </c>
@@ -5620,9 +5552,9 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -5630,44 +5562,44 @@
       <c r="E6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F9" s="55"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="E10" s="14" t="s">
         <v>52</v>
@@ -5682,23 +5614,23 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F11" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="G13" s="9" t="s">
         <v>50</v>
@@ -5707,73 +5639,73 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="E15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="E18" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="55"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="E20" s="14" t="s">
         <v>52</v>
@@ -5788,23 +5720,23 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="G23" s="9" t="s">
         <v>50</v>
@@ -5813,75 +5745,75 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+        <v>114</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+        <v>126</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
+        <v>125</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="E28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="55"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="E30" s="14" t="s">
         <v>52</v>
@@ -5896,23 +5828,23 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="E31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="G33" s="9" t="s">
         <v>50</v>
@@ -5921,63 +5853,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
+        <v>114</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="E37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F38" s="55"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="E39" s="14" t="s">
         <v>52</v>
@@ -5992,23 +5924,23 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="E40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="G42" s="9" t="s">
         <v>50</v>
@@ -6017,64 +5949,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="E44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
       <c r="K44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
+        <v>125</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="E46" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F47" s="55"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="E48" s="14" t="s">
         <v>52</v>
@@ -6089,23 +6021,23 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="G51" s="9" t="s">
         <v>50</v>
@@ -6114,66 +6046,66 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="E53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
       <c r="K53" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
         <v>129</v>
       </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
       <c r="E54" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="60" t="s">
+      <c r="I54" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J54" s="60"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="E55" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F56" s="55"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="56"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="E57" s="14" t="s">
         <v>52</v>
@@ -6188,23 +6120,23 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="E58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="G60" s="9" t="s">
         <v>50</v>
@@ -6213,64 +6145,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="E62" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="48"/>
-      <c r="G62" s="49"/>
+        <v>135</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
         <v>134</v>
       </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="50"/>
+        <v>125</v>
+      </c>
+      <c r="I63" s="32"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="E64" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F65" s="55"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="56"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="E66" s="14" t="s">
         <v>52</v>
@@ -6285,23 +6217,23 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="E67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="G69" s="9" t="s">
         <v>50</v>
@@ -6310,73 +6242,73 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="E71" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="50"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33"/>
       <c r="K71" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
         <v>137</v>
       </c>
-      <c r="C72" t="s">
-        <v>138</v>
-      </c>
       <c r="E72" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F73" s="49"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="51"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="E74" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F75" s="55"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="56"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="E76" s="14" t="s">
         <v>52</v>
@@ -6391,23 +6323,23 @@
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="E77" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="G79" s="9" t="s">
         <v>50</v>
@@ -6416,64 +6348,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="E81" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="48"/>
-      <c r="G81" s="49"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I81" s="49"/>
-      <c r="J81" s="50"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="33"/>
       <c r="K81" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
-      </c>
-      <c r="F82" s="48"/>
-      <c r="G82" s="49"/>
+        <v>146</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50"/>
+        <v>145</v>
+      </c>
+      <c r="I82" s="32"/>
+      <c r="J82" s="33"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="E83" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F83" s="38"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="54"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F84" s="55"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="56"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="E85" s="14" t="s">
         <v>52</v>
@@ -6488,23 +6420,23 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="E86" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="G88" s="9" t="s">
         <v>50</v>
@@ -6513,61 +6445,61 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="E90" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="49"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="33"/>
       <c r="K90" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E91" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="48"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="33"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="E92" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="40"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="54"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="43"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F93" s="55"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="56"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="E94" s="14" t="s">
         <v>52</v>
@@ -6582,23 +6514,23 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="E95" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="G97" s="9" t="s">
         <v>50</v>
@@ -6607,72 +6539,72 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="E99" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="49"/>
+        <v>148</v>
+      </c>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I99" s="49"/>
-      <c r="J99" s="50"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="33"/>
       <c r="K99" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="31"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F100" s="48"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I100" s="49"/>
-      <c r="J100" s="50"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="33"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="E101" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="37"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F101" s="49"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="51"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="E102" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F102" s="38"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="40"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F102" s="52"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="54"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="43"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F103" s="55"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="56"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="E104" s="14" t="s">
         <v>52</v>
@@ -6687,23 +6619,23 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="E105" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="G107" s="9" t="s">
         <v>50</v>
@@ -6714,6 +6646,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F46:J47"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J29"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J19"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F8:J9"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="F95:J95"/>
     <mergeCell ref="F101:J101"/>
     <mergeCell ref="F102:J103"/>
@@ -6721,29 +6676,6 @@
     <mergeCell ref="F83:J84"/>
     <mergeCell ref="F86:J86"/>
     <mergeCell ref="F92:J93"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J19"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F8:J9"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F46:J47"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J29"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B04FDE-33A1-4999-92ED-1ADD482D78E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FED952-02B2-46B5-B0A7-32E9BEFC578B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sau khi nộp đơn" sheetId="6" r:id="rId2"/>
+    <sheet name="Sau khi nộp đơn" sheetId="6" r:id="rId1"/>
+    <sheet name="Các bước update 1 trạng thái" sheetId="14" r:id="rId2"/>
     <sheet name="Yêu cầu từ thằng câu hỏi" sheetId="13" r:id="rId3"/>
     <sheet name="Sau khi cấp bằng" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -646,57 +646,58 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Hong Tuyen</author>
+    <author>Lucy Lucy</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{8B84D5A3-ED47-4D5D-A0C5-2097ECC2A3F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{ED56CB79-2189-47EF-8D4F-B6542F5FAE56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{EA139740-EF5B-4BBB-966A-90F82FECFC17}">
       <text>
         <r>
           <rPr>
@@ -720,79 +721,200 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{5AE74DB5-6CC4-4364-8EF3-5B59179CA514}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cilick vào số thông báo/ hoặc nội dung từ chối thì download bản scan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{63DECC51-E222-4079-88BD-4A86F6B27B8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{2918619B-59A1-4C74-B7ED-F64600D8F2F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="1" shapeId="0" xr:uid="{AFA1B3FD-1ACE-4891-A6C8-1DFEBFCE61E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lucy Lucy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Admin comment ở đây, nếu comment của luật sư sai
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{FCC45A31-5EAF-434E-BA7C-D7CBA823A5BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{3FFAD4A7-B2EC-4260-8851-AA918BE831EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{BD87DD95-637A-4B10-9500-E3981AABFD7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{22CB8BD7-FB1A-4D4F-AB77-877B6D1CC6DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{6FAA63EA-5DE3-4B48-8619-676572760918}">
       <text>
         <r>
           <rPr>
@@ -816,79 +938,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-10 năm tiếp theo tính từ ngày gia hạn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{9E60ED59-E1AA-435B-AAED-4CE5E0F30DEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{5A569335-4F68-4620-B5C3-065271810B0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{4C329DAB-7EE9-4247-96A0-1D30944CD606}">
       <text>
         <r>
           <rPr>
@@ -912,7 +1010,319 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="E69" authorId="0" shapeId="0" xr:uid="{BDB59C70-386E-401F-B8F9-C0C96D6CC8CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E70" authorId="0" shapeId="0" xr:uid="{44923F2C-CEAF-463B-99CF-AAE082D93B86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{E605E51B-B0DA-463E-BF2C-A6185E63E7DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E5465D92-C488-4789-9DDC-74050804E363}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E85" authorId="0" shapeId="0" xr:uid="{F3425973-E27A-4DE5-85BF-E54AFFECD6F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{43439931-814D-4EC0-87EF-A9C47126B54B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F91" authorId="0" shapeId="0" xr:uid="{BF52960D-3624-4B0A-9963-56F2FF787ADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu confirm tức là gửi thẳng report cho khách hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H91" authorId="0" shapeId="0" xr:uid="{A770E0F7-F143-44E4-B574-7D11E6E9805C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ủy quyền cho người khác review (Luật sư cao cấp hoặc Admin 2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{7B76A918-3492-4C62-9D55-396DD96E2BEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E100" authorId="0" shapeId="0" xr:uid="{99B6E6BE-059D-4F56-9A6E-19913FB20D54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E105" authorId="0" shapeId="0" xr:uid="{22E4A9C3-4FED-4EE8-AD84-12ED6E47696E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F106" authorId="0" shapeId="0" xr:uid="{C43B3F8B-BE8B-4E91-B972-61164F1F6EFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu confirm tức là gửi thẳng report cho khách hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H106" authorId="0" shapeId="0" xr:uid="{5D63D840-6E5D-412C-9F8C-8F1B9BCBD466}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ủy quyền cho người khác review (Luật sư cao cấp hoặc Admin 2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F107" authorId="0" shapeId="0" xr:uid="{E479D567-658B-4D41-AC65-D514E777255E}">
       <text>
         <r>
           <rPr>
@@ -946,6 +1356,304 @@
     <author>Le Thi Hong Tuyen</author>
   </authors>
   <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10 năm tiếp theo tính từ ngày gia hạn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Renewal Notice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Le Thi Hong Tuyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Le Thi Hong Tuyen</author>
+  </authors>
+  <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -1887,151 +2595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="165">
-  <si>
-    <t>Luật sư</t>
-  </si>
-  <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
-    <t>Tình trạng Đơn</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>Việc cần làm / To-Dos</t>
-  </si>
-  <si>
-    <t>Yêu cầu /Order</t>
-  </si>
-  <si>
-    <t>Tìm kiếm / Search</t>
-  </si>
-  <si>
-    <t>Đơn mới / New Application</t>
-  </si>
-  <si>
-    <t>Khác / Others</t>
-  </si>
-  <si>
-    <t>Câu hỏi thông thường/ Q&amp;A</t>
-  </si>
-  <si>
-    <t>Mô tả nội dung</t>
-  </si>
-  <si>
-    <t>Người yêu cầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thời gian </t>
-  </si>
-  <si>
-    <t>Người xử lý</t>
-  </si>
-  <si>
-    <t>Tình trạng case / Case status</t>
-  </si>
-  <si>
-    <t>Luật sư/ Attorney</t>
-  </si>
-  <si>
-    <t>Khách hàng / Clients</t>
-  </si>
-  <si>
-    <t>Thanh toán / Billing</t>
-  </si>
-  <si>
-    <t>Xử lý yêu cầu / Application Handle</t>
-  </si>
-  <si>
-    <t>Bổ sung tài liệu / Document submission</t>
-  </si>
-  <si>
-    <t>Thanh toán / Payment</t>
-  </si>
-  <si>
-    <t>Xác nhận nộp đơn / Confirmation</t>
-  </si>
-  <si>
-    <t>Thực thi / Enforcement</t>
-  </si>
-  <si>
-    <t>Tuyên bố, Cam kết / Declaration, Affidavit</t>
-  </si>
-  <si>
-    <t>Kiểm soát tuân thủ/Compliance</t>
-  </si>
-  <si>
-    <t>Tra cứu, xác minh / Search, Due diligence</t>
-  </si>
-  <si>
-    <t>Tin tức / News</t>
-  </si>
-  <si>
-    <t>highlighted news!</t>
-  </si>
-  <si>
-    <t>Bản tin / Bulletin</t>
-  </si>
-  <si>
-    <t>Công nghệ, Truyền thông / Technologies, Media</t>
-  </si>
-  <si>
-    <t>Hợp đồng, đấu thầu/ Contract, Bidding</t>
-  </si>
-  <si>
-    <t>Nhãn hiệu / Trademark</t>
-  </si>
-  <si>
-    <t>Sáng chế / Patent</t>
-  </si>
-  <si>
-    <t>Bản quyền / Copyright</t>
-  </si>
-  <si>
-    <t>Thông báo / Notifications</t>
-  </si>
-  <si>
-    <t>Legal Updates</t>
-  </si>
-  <si>
-    <t>Khiếu kiện / Litigation</t>
-  </si>
-  <si>
-    <t>QUẢN LÝ / I-MONITOR</t>
-  </si>
-  <si>
-    <t>THEO DÕI / I-WATCH</t>
-  </si>
-  <si>
-    <t>NỘP ĐƠN / I-APPLICATION</t>
-  </si>
-  <si>
-    <t>THƯ VIỆN DỮ LIỆU / WIKI DATA</t>
-  </si>
-  <si>
-    <t>Giám sát hải quan / Customs Control</t>
-  </si>
-  <si>
-    <t>Điều tra xác minh / Due diligence</t>
-  </si>
-  <si>
-    <t>Điều tra xử lý / Investigation-Raid-Seizure</t>
-  </si>
-  <si>
-    <t>Mẫu biểu/Forms</t>
-  </si>
-  <si>
-    <t>Phí/ Fees</t>
-  </si>
-  <si>
-    <t>Khieu nai tu choi / Office Actions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="149">
   <si>
     <t>Số Đơn</t>
   </si>
@@ -2384,13 +2948,109 @@
   </si>
   <si>
     <t>Bo search, cho khách hàng từ request đơn</t>
+  </si>
+  <si>
+    <t>2. UPDATE TRẠNG THÁI ĐƠN</t>
+  </si>
+  <si>
+    <t>Ở phần update trạng thái các đơn, ngoài các trạng thái THÔNG THƯỜNG theo qúa trình xét nghiệm đơn từ Hình thức, Công bố, Nội dung, Cấp bằng,...cho thêm hyberlink đến các trạng thái BẤT THƯỜNG của đơn nếu có: khiếu nại 3d, sửa 2b, chuyển nhượng 3c, lixang, gia hạn.</t>
+  </si>
+  <si>
+    <t>Bước 1: luật sư Nhận Thông báo Hình thức lần 1 - từ chối hợp lệ Đơn 2a -&gt; Nhập số Thông báo, ngày Thông báo, nội dung Thông báo và Advise trả lời, upload bản scanned của TB và làm billing (nếu có) -&gt; Nhấn submit để gửi Admin review theo Giao diện sau:</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>upload bản scanned TB here</t>
+  </si>
+  <si>
+    <t>Advise trả lời</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>yes  -&gt; sang form tạo billing</t>
+  </si>
+  <si>
+    <t>Bước 2: admin nhận Thông báo (via email và To-DO job), review mở đơn 2a giao diện hình thức, review file Thông báo từ chối đã được Luật sư upload lên và comment vào phần advise của Luật sư (nếu có), sau đó chọn send để TB cho Khách hàng</t>
+  </si>
+  <si>
+    <t>Preview/kết xuất Billing Request here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 3: Khách hàng nhận được Thông báo (via email và To-Do job), mở đơn 2a giao diện hình thức và review thông tin/advise đã được nhập bởi Luật sư và comments bởi Admin ; </t>
+  </si>
+  <si>
+    <t>comment tiếp tục vào phần advise trả lời và nhấn submit để gửi confirm nộp Trả lời chính thức cho Luật sư theo giao diện sau</t>
+  </si>
+  <si>
+    <t>Comment sss bởi Admin</t>
+  </si>
+  <si>
+    <t>Comment mmm bởi Khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bước 4:  LS nhận được Thông báo confirm từ KH (via email và To-Do job), mở đơn 2a giao diện hình thức và nhấn nút dịch để dịch phần nội dung advise trả lời sang tiếng Việt (phần này sẽ được insert vào form Nội dung của Công văn trả lời Cục theo mẫu), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xuất ra 1 công văn mẫu có nội dung là mục Advise trả lời đã được comment/confirmed bởi Admin và Khách hàng (chị Tuyến gửi lại mẫu CV này); nhấn Preview bên canhj phần dịch để review CV trả lời trước khi Submit để gửi Admin review </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Số CV trả lời TB lần 1</t>
+  </si>
+  <si>
+    <t>Ngày trả lời</t>
+  </si>
+  <si>
+    <t>Advise trả lời tiếng Anh/TV</t>
+  </si>
+  <si>
+    <t>xxx-sss-mmm</t>
+  </si>
+  <si>
+    <t>Advise trả lời tiếng TV</t>
+  </si>
+  <si>
+    <t>xxx-sss-mmm in Vietnamese</t>
+  </si>
+  <si>
+    <t>Preview CV trả lời</t>
+  </si>
+  <si>
+    <t>Bước 5:  Admin nhận được Yêu cầu review từ LS (via email và To-Do job), mở đơn 2a giao diện hình thức và nhấn nút Kết xuất công văn trả lời cục để review và sửa, nếu có; sau đó nhấn nút Submit để nộp vào Cục SHTT</t>
+  </si>
+  <si>
+    <t>Bước 6:  LS update trạng thái nộp Trả lời TB hình thức lần 1  và upload bản scanned CV Trả lời lên hệ thống, ghi nhận deadline mới chờ Chấp nhận hợp lệ; nhấn save</t>
+  </si>
+  <si>
+    <t>next Deadline</t>
+  </si>
+  <si>
+    <t>Upload bản scanned CV trả lời here</t>
+  </si>
+  <si>
+    <t>Bước 7:  LS update trạng thái chấp nhận hợp lệ và upload bản scannedTB hợp l lên hệ thống, ghi nhận deadline mới; nhấn submit gửi Admin review</t>
+  </si>
+  <si>
+    <t>Upload bản scannedTB hợp lệ here</t>
+  </si>
+  <si>
+    <t>Bước8:  admin nhận Thông báo (via email và To-DO job), mở đơn 2a giao diện hình thức, review thông tin và submit để TB cho Khách hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2456,8 +3116,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2470,65 +3158,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2676,39 +3318,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2717,101 +3418,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -3912,326 +4574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K31"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4">
-        <v>3</v>
-      </c>
-      <c r="I31" s="4">
-        <v>3</v>
-      </c>
-      <c r="K31" s="4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E24:K25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -4244,807 +4596,812 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>90</v>
+      <c r="A2" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="35" t="s">
-        <v>106</v>
+      <c r="A3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="K18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="24"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="K19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="47"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="48"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K23" s="20"/>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="K18" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="K19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="56"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="K22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K23" s="22"/>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="Q24" s="27"/>
+      <c r="E24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="K25" s="22"/>
-      <c r="M25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="27"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="K25" s="20"/>
+      <c r="M25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="K26" s="22"/>
-      <c r="Q26" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="K26" s="20"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="K27" s="22"/>
-      <c r="Q27" s="27"/>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="K27" s="20"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="28"/>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="55"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="56"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="34" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="T34" s="45"/>
+      <c r="D34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="51"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S35" s="46"/>
-      <c r="T35" s="47"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="53"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
+        <v>60</v>
+      </c>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>7</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
+      <c r="B39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="55"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="56"/>
-      <c r="K41" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="O41" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="P41" s="60"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="48"/>
+      <c r="K41" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="55"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="K42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="B42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="K42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="K43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="K43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
+      <c r="D45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>8</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="26"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
+      <c r="B49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="24"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
-      <c r="K50" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" s="27"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+      <c r="K50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="25"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="K51" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="27"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
+      <c r="B51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="K51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="25"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="27"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
+      <c r="B52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="25"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="55"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="56"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="27"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="48"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="25"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="K54" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L54" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="27"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+      <c r="B54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="K54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="25"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="K55" s="22"/>
-      <c r="Q55" s="27"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="K55" s="20"/>
+      <c r="Q55" s="25"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K56" s="22"/>
-      <c r="Q56" s="27"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
+      <c r="K56" s="20"/>
+      <c r="Q56" s="25"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D57" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" s="22"/>
-      <c r="M57" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q57" s="27"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
+      <c r="D57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="M57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="25"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K58" s="10"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="28"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="26"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+        <v>55</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>9</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
+      <c r="B60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
+      <c r="B61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
+      <c r="B62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="55"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="56"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="B64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D67" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>51</v>
+      <c r="D67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L19:P20"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="O41:P43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L51:P52"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="C43:G43"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -5061,23 +5418,1192 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G53"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G63"/>
-    <mergeCell ref="O41:P43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L51:P52"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="L19:P20"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FF2B99-731B-464D-987F-A1C5EFC1D70F}">
+  <dimension ref="A1:J107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="56"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="12"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="61"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="61"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="61"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="63"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="61"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="63"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="43"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="61"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="61"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D57" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D58" s="63"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D59" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="61"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D60" s="63"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="37"/>
+      <c r="G67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="37"/>
+      <c r="G68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" s="61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="61"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D71" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D72" s="63"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D73" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D74" s="63"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="48"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D76" s="20"/>
+      <c r="F76" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="43"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="37"/>
+      <c r="I82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J82" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D83" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I83" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D86" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D87" s="63"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D88" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D89" s="63"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="61"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D91" s="20"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="J91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F92" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="43"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D97" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" s="37"/>
+      <c r="G97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="37"/>
+      <c r="I97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D98" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="37"/>
+      <c r="G98" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H98" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J98" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D101" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D102" s="63"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D103" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D104" s="63"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="61"/>
+    </row>
+    <row r="105" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D105" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D106" s="20"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F107" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:I102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:I104"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:I89"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:I74"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:I72"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:I58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:I60"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:I46"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E18:I18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5093,351 +6619,351 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+        <v>109</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="21"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="19"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="21"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="19"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="19"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="17"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="20"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
-      </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+        <v>111</v>
+      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>51</v>
+      <c r="D27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
-      </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+        <v>114</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="21"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="19"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="21"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="19"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="19"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="17"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="20"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="18"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="B36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="D39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="A39" s="3"/>
+      <c r="D39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5467,1196 +6993,1192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="G13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="G23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="E28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="E30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="G33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="E37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="48"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="E39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="E40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="G42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="E46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="48"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="E48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="G51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="E53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="E55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="48"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="E57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="G60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="E62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="E64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="48"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="E66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="G69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="E71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="30"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C72" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="E72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="E73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="E74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="48"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="E76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="3"/>
+      <c r="G79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="3"/>
+      <c r="E81" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="30"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="30"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="3"/>
+      <c r="E83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="48"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="E85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="E86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="G88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="E90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="29"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="30"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="29"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I91" s="30"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="3"/>
+      <c r="E92" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="46"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="3"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="48"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="3"/>
+      <c r="E94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="E95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="3"/>
+      <c r="G97" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="E99" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I99" s="30"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="E8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="E10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="E18" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="56"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="E20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="G23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="E28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="56"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="E30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="G33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="E37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="56"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="E39" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="G42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="E44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="E46" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="56"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="E48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="E49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="G51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="E53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="39"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="E55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="56"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="E57" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="E58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="G60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="E62" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="5"/>
-      <c r="E64" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="56"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="E66" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="E67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="5"/>
-      <c r="G69" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
-      <c r="E71" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71" s="32"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="E73" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="51"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="E74" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="56"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="5"/>
-      <c r="E76" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="E77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="5"/>
-      <c r="G79" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-      <c r="E81" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I82" s="32"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="E83" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="56"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="E85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
-      <c r="E86" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="G88" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="E90" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" t="s">
-        <v>147</v>
-      </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I91" s="32"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="E92" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="54"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="56"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="E94" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="E95" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F95" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="57"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="G97" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="E99" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="31"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I99" s="32"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" t="s">
-        <v>142</v>
-      </c>
       <c r="E100" t="s">
-        <v>149</v>
-      </c>
-      <c r="F100" s="31"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I100" s="32"/>
-      <c r="J100" s="33"/>
+        <v>101</v>
+      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" s="30"/>
+      <c r="J100" s="31"/>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="E101" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="51"/>
+      <c r="B101" s="3"/>
+      <c r="E101" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="41"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="43"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
-      <c r="E102" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F102" s="52"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="54"/>
+      <c r="B102" s="3"/>
+      <c r="E102" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="44"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="46"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="56"/>
+      <c r="B103" s="3"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="48"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="E104" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
+      <c r="B104" s="3"/>
+      <c r="E104" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="E105" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
+      <c r="B105" s="3"/>
+      <c r="E105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="G107" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>51</v>
+      <c r="B107" s="3"/>
+      <c r="G107" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J103"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F83:J84"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F92:J93"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F46:J47"/>
@@ -6669,13 +8191,17 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F102:J103"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F83:J84"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F92:J93"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FED952-02B2-46B5-B0A7-32E9BEFC578B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B039DFA-1A42-4EE3-84E1-BB9A73C9CBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3403,8 +3403,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3433,29 +3447,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3465,15 +3474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -4646,11 +4646,11 @@
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4659,21 +4659,21 @@
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -4693,18 +4693,18 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
@@ -4717,13 +4717,13 @@
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
@@ -4744,11 +4744,11 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4772,11 +4772,11 @@
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="K18" s="36" t="s">
         <v>5</v>
       </c>
@@ -4791,33 +4791,33 @@
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="K19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="47"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="56"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4845,23 +4845,23 @@
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4901,11 +4901,11 @@
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="K26" s="20"/>
       <c r="Q26" s="25"/>
     </row>
@@ -4916,11 +4916,11 @@
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
       <c r="K27" s="20"/>
       <c r="Q27" s="25"/>
     </row>
@@ -4928,11 +4928,11 @@
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="K28" s="8"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -4945,18 +4945,18 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="47"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="48"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -4976,13 +4976,13 @@
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="34" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
@@ -4991,14 +4991,14 @@
       <c r="E34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="50" t="s">
+      <c r="S34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="51"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S35" s="52"/>
-      <c r="T35" s="53"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="47"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -5031,11 +5031,11 @@
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
@@ -5043,27 +5043,27 @@
       <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="47"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="48"/>
-      <c r="K41" s="55" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="56"/>
+      <c r="K41" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="54" t="s">
+      <c r="O41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="55"/>
+      <c r="P41" s="58"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
@@ -5080,9 +5080,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="K42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
+      <c r="K42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
@@ -5090,16 +5090,16 @@
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="K43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="K43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
@@ -5129,11 +5129,11 @@
       <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
@@ -5144,11 +5144,11 @@
       <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -5163,11 +5163,11 @@
       <c r="B50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
       <c r="K50" s="20" t="s">
         <v>36</v>
       </c>
@@ -5179,19 +5179,19 @@
       <c r="B51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
       <c r="K51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
       <c r="Q51" s="25"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -5200,27 +5200,27 @@
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
       <c r="Q52" s="25"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="47"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="48"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="56"/>
       <c r="K53" s="20"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -5247,13 +5247,13 @@
       <c r="K54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
       <c r="Q54" s="25"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -5262,13 +5262,13 @@
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
       <c r="K55" s="20"/>
       <c r="Q55" s="25"/>
       <c r="S55" s="9"/>
@@ -5308,11 +5308,11 @@
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -5321,38 +5321,38 @@
       <c r="B60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="46"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="47"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="48"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="56"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
@@ -5372,13 +5372,13 @@
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="7" t="s">
@@ -5390,18 +5390,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G63"/>
-    <mergeCell ref="O41:P43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L51:P52"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="L19:P20"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -5418,13 +5413,18 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G53"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="L19:P20"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="O41:P43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L51:P52"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5438,7 +5438,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:I20"/>
+      <selection activeCell="E10" sqref="E10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,11 +5466,11 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
@@ -5487,7 +5487,7 @@
       <c r="I9" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5495,35 +5495,35 @@
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5561,18 +5561,18 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="40" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="37"/>
@@ -5583,65 +5583,65 @@
       <c r="I17" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="56" t="s">
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5657,11 +5657,11 @@
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5679,55 +5679,55 @@
       <c r="I27" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="56"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="61" t="s">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="61" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="41" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5735,22 +5735,22 @@
       <c r="D32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="56" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5769,14 +5769,14 @@
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D39" s="4" t="s">
         <v>62</v>
       </c>
@@ -5791,9 +5791,9 @@
       <c r="I39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="61"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
         <v>135</v>
       </c>
@@ -5808,83 +5808,83 @@
         <v>134</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="61"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="61"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="62" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="61" t="s">
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="63"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="61" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="62"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="62" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="61"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="63"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="61" t="s">
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="62"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D47" s="12" t="s">
         <v>4</v>
       </c>
@@ -5897,36 +5897,36 @@
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="56" t="s">
+      <c r="J47" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F48" s="41" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="43"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="51"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>134</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D53" s="4" t="s">
         <v>62</v>
       </c>
@@ -5941,9 +5941,9 @@
       <c r="I53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J53" s="61"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D54" s="6" t="s">
         <v>135</v>
       </c>
@@ -5958,83 +5958,83 @@
         <v>134</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="61"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="61"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D57" s="62" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="61" t="s">
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D58" s="63"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="61" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="62"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D59" s="62" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="61"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D60" s="63"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="61" t="s">
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D60" s="62"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" s="12" t="s">
         <v>4</v>
       </c>
@@ -6045,36 +6045,36 @@
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
-      <c r="J61" s="56" t="s">
+      <c r="J61" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F62" s="41" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="43"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="51"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D67" s="4" t="s">
         <v>62</v>
       </c>
@@ -6089,11 +6089,11 @@
       <c r="I67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J67" s="61" t="s">
+      <c r="J67" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D68" s="6" t="s">
         <v>135</v>
       </c>
@@ -6107,87 +6107,87 @@
       <c r="H68" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I68" s="64" t="s">
+      <c r="I68" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="J68" s="61" t="s">
+      <c r="J68" s="41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="61"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D71" s="62" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E71" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="61" t="s">
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D72" s="63"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="61" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D72" s="62"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D73" s="62" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D73" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="61" t="s">
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D74" s="63"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="48"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D74" s="62"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="56"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D75" s="12" t="s">
         <v>4</v>
       </c>
@@ -6198,38 +6198,38 @@
       <c r="G75" s="38"/>
       <c r="H75" s="38"/>
       <c r="I75" s="38"/>
-      <c r="J75" s="56" t="s">
+      <c r="J75" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D76" s="20"/>
-      <c r="F76" s="41" t="s">
+      <c r="F76" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="43"/>
+      <c r="G76" s="51"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>134</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" s="4" t="s">
         <v>62</v>
       </c>
@@ -6244,11 +6244,11 @@
       <c r="I82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J82" s="61" t="s">
+      <c r="J82" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D83" s="6" t="s">
         <v>135</v>
       </c>
@@ -6262,92 +6262,92 @@
       <c r="H83" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="64" t="s">
+      <c r="I83" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="J83" s="65" t="s">
+      <c r="J83" s="43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="65" t="s">
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="39" t="s">
+      <c r="E85" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D86" s="62" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D86" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="44" t="s">
+      <c r="E86" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="61" t="s">
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D87" s="63"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="61" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D87" s="62"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D88" s="62" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D88" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="61" t="s">
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D89" s="63"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="61"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="62"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="41"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D90" s="12" t="s">
         <v>4</v>
       </c>
@@ -6358,43 +6358,43 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
-      <c r="J90" s="56" t="s">
+      <c r="J90" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D91" s="20"/>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F92" s="41" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="43"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G92" s="51"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>134</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97" s="4" t="s">
         <v>62</v>
       </c>
@@ -6409,11 +6409,11 @@
       <c r="I97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J97" s="61" t="s">
+      <c r="J97" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98" s="6" t="s">
         <v>135</v>
       </c>
@@ -6427,92 +6427,92 @@
       <c r="H98" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="I98" s="64" t="s">
+      <c r="I98" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="J98" s="65" t="s">
+      <c r="J98" s="43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="39" t="s">
+      <c r="E99" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="65" t="s">
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D100" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="39" t="s">
+      <c r="E100" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D101" s="62" t="s">
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D101" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="61" t="s">
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="41" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D102" s="63"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="61" t="s">
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D102" s="62"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D103" s="62" t="s">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D103" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="61" t="s">
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D104" s="63"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="61"/>
-    </row>
-    <row r="105" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D104" s="62"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105" s="12" t="s">
         <v>4</v>
       </c>
@@ -6525,18 +6525,18 @@
       </c>
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
-      <c r="J105" s="56" t="s">
+      <c r="J105" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D106" s="20"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="38"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F107" s="38" t="s">
         <v>2</v>
       </c>
@@ -6546,35 +6546,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:I102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:I104"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:I89"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:I74"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:I72"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:I58"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E38:I38"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:I60"/>
     <mergeCell ref="E42:I42"/>
@@ -6583,24 +6572,35 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:I46"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:I58"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:I72"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:I74"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:I89"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:I102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:I104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7088,11 +7088,11 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -7100,30 +7100,30 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="48"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -7145,13 +7145,13 @@
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -7194,11 +7194,11 @@
       <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7206,30 +7206,30 @@
       <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="48"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -7251,13 +7251,13 @@
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
@@ -7314,30 +7314,30 @@
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="E28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="48"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
@@ -7359,13 +7359,13 @@
       <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -7421,19 +7421,19 @@
       <c r="E37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="46"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="48"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="56"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -7455,13 +7455,13 @@
       <c r="E40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -7518,19 +7518,19 @@
       <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="48"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -7552,13 +7552,13 @@
       <c r="E49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -7617,19 +7617,19 @@
       <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="48"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -7651,13 +7651,13 @@
       <c r="E58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
@@ -7714,19 +7714,19 @@
       <c r="E64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="46"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="48"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
@@ -7748,13 +7748,13 @@
       <c r="E67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
@@ -7797,11 +7797,11 @@
       <c r="E72" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -7809,30 +7809,30 @@
       <c r="E73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="43"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="51"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="E74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="46"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="48"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
@@ -7854,13 +7854,13 @@
       <c r="E77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
@@ -7917,19 +7917,19 @@
       <c r="E83" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="44"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="46"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="54"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="48"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
@@ -7951,13 +7951,13 @@
       <c r="E86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
@@ -8011,19 +8011,19 @@
       <c r="E92" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="46"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="54"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="48"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -8045,13 +8045,13 @@
       <c r="E95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="39" t="s">
+      <c r="F95" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
@@ -8105,30 +8105,30 @@
       <c r="E101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="43"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="51"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="E102" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="46"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="54"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="48"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="56"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
@@ -8150,13 +8150,13 @@
       <c r="E105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
@@ -8172,13 +8172,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F102:J103"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F83:J84"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F92:J93"/>
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F49:J49"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F46:J47"/>
@@ -8191,17 +8195,13 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J103"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F83:J84"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F92:J93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B039DFA-1A42-4EE3-84E1-BB9A73C9CBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033680DD-E2BD-4C92-9C0B-0010FA74E9DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E69" authorId="0" shapeId="0" xr:uid="{BDB59C70-386E-401F-B8F9-C0C96D6CC8CE}">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E5465D92-C488-4789-9DDC-74050804E363}">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E70" authorId="0" shapeId="0" xr:uid="{44923F2C-CEAF-463B-99CF-AAE082D93B86}">
+    <comment ref="E85" authorId="0" shapeId="0" xr:uid="{F3425973-E27A-4DE5-85BF-E54AFFECD6F0}">
       <text>
         <r>
           <rPr>
@@ -1058,31 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{E605E51B-B0DA-463E-BF2C-A6185E63E7DD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{E5465D92-C488-4789-9DDC-74050804E363}">
+    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{7B76A918-3492-4C62-9D55-396DD96E2BEA}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E85" authorId="0" shapeId="0" xr:uid="{F3425973-E27A-4DE5-85BF-E54AFFECD6F0}">
+    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{99B6E6BE-059D-4F56-9A6E-19913FB20D54}">
       <text>
         <r>
           <rPr>
@@ -1127,222 +1103,6 @@
           </rPr>
           <t xml:space="preserve">
 Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{43439931-814D-4EC0-87EF-A9C47126B54B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F91" authorId="0" shapeId="0" xr:uid="{BF52960D-3624-4B0A-9963-56F2FF787ADE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu confirm tức là gửi thẳng report cho khách hàng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H91" authorId="0" shapeId="0" xr:uid="{A770E0F7-F143-44E4-B574-7D11E6E9805C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ủy quyền cho người khác review (Luật sư cao cấp hoặc Admin 2)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{7B76A918-3492-4C62-9D55-396DD96E2BEA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-nếu chưa được hợp lệ thì điền vào nội dung từ chối phía dưới</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E100" authorId="0" shapeId="0" xr:uid="{99B6E6BE-059D-4F56-9A6E-19913FB20D54}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Luật sư tự typing nội dung tóm tắt của TB từ chối. Nội dung này sẽ tự động add vào form Acceptance Notice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E105" authorId="0" shapeId="0" xr:uid="{22E4A9C3-4FED-4EE8-AD84-12ED6E47696E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Yes thì link sang Billing Sheet làm billing để attach vào sau đây cùng với Đơn</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F106" authorId="0" shapeId="0" xr:uid="{C43B3F8B-BE8B-4E91-B972-61164F1F6EFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu confirm tức là gửi thẳng report cho khách hàng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H106" authorId="0" shapeId="0" xr:uid="{5D63D840-6E5D-412C-9F8C-8F1B9BCBD466}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ủy quyền cho người khác review (Luật sư cao cấp hoặc Admin 2)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F107" authorId="0" shapeId="0" xr:uid="{E479D567-658B-4D41-AC65-D514E777255E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Le Thi Hong Tuyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Submit thi xuất form advice filing + billing request gửi cho Admin review</t>
         </r>
       </text>
     </comment>
@@ -3408,17 +3168,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3447,23 +3198,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3472,6 +3226,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4577,7 +4337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G21"/>
     </sheetView>
   </sheetViews>
@@ -4646,11 +4406,11 @@
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4659,21 +4419,21 @@
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -4693,18 +4453,18 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
@@ -4717,13 +4477,13 @@
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
@@ -4744,11 +4504,11 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4772,11 +4532,11 @@
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
       <c r="K18" s="36" t="s">
         <v>5</v>
       </c>
@@ -4791,33 +4551,33 @@
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
       <c r="K19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="55"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="53"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4845,23 +4605,23 @@
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4901,11 +4661,11 @@
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="K26" s="20"/>
       <c r="Q26" s="25"/>
     </row>
@@ -4916,11 +4676,11 @@
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
       <c r="K27" s="20"/>
       <c r="Q27" s="25"/>
     </row>
@@ -4928,11 +4688,11 @@
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
       <c r="K28" s="8"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -4945,18 +4705,18 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="55"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="56"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -4976,13 +4736,13 @@
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="34" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
@@ -4991,14 +4751,14 @@
       <c r="E34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="44" t="s">
+      <c r="S34" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="45"/>
+      <c r="T34" s="56"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S35" s="46"/>
-      <c r="T35" s="47"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="58"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -5031,11 +4791,11 @@
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
@@ -5043,27 +4803,27 @@
       <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="55"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="56"/>
-      <c r="K41" s="58" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="53"/>
+      <c r="K41" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="57" t="s">
+      <c r="O41" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="58"/>
+      <c r="P41" s="60"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
@@ -5080,9 +4840,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="K42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
+      <c r="K42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
@@ -5090,16 +4850,16 @@
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="K43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="K43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
@@ -5129,11 +4889,11 @@
       <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
@@ -5144,11 +4904,11 @@
       <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -5163,11 +4923,11 @@
       <c r="B50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
       <c r="K50" s="20" t="s">
         <v>36</v>
       </c>
@@ -5179,19 +4939,19 @@
       <c r="B51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
       <c r="K51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
       <c r="Q51" s="25"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -5200,27 +4960,27 @@
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
       <c r="Q52" s="25"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="55"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="56"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="53"/>
       <c r="K53" s="20"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -5247,13 +5007,13 @@
       <c r="K54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="59" t="s">
+      <c r="L54" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
       <c r="Q54" s="25"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -5262,13 +5022,13 @@
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
       <c r="K55" s="20"/>
       <c r="Q55" s="25"/>
       <c r="S55" s="9"/>
@@ -5308,11 +5068,11 @@
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -5321,38 +5081,38 @@
       <c r="B60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="55"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="56"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="53"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
@@ -5372,13 +5132,13 @@
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="7" t="s">
@@ -5390,13 +5150,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L19:P20"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="O41:P43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L51:P52"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="C43:G43"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -5413,18 +5178,13 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G53"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G63"/>
-    <mergeCell ref="O41:P43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L51:P52"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="L19:P20"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5435,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FF2B99-731B-464D-987F-A1C5EFC1D70F}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,11 +5226,11 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
@@ -5495,35 +5255,35 @@
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="56"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
@@ -5561,11 +5321,11 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -5589,59 +5349,59 @@
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5657,11 +5417,11 @@
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5685,48 +5445,48 @@
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="56"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="41" t="s">
         <v>131</v>
       </c>
@@ -5735,22 +5495,22 @@
       <c r="D32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="51"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5769,11 +5529,11 @@
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5814,72 +5574,72 @@
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="62"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="56"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
       <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="62"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="56"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="41" t="s">
         <v>141</v>
       </c>
@@ -5902,10 +5662,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="51"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -5919,11 +5679,11 @@
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5964,72 +5724,72 @@
       <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E56" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="54"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51"/>
       <c r="J57" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="62"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="56"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="53"/>
       <c r="J58" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="51"/>
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D60" s="62"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="56"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="41" t="s">
         <v>141</v>
       </c>
@@ -6050,10 +5810,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="51"/>
+      <c r="G62" s="48"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -6067,11 +5827,11 @@
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6118,77 +5878,77 @@
       <c r="D69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E70" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="61" t="s">
+      <c r="D71" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="54"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="51"/>
       <c r="J71" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D72" s="62"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="56"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
       <c r="J73" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D74" s="62"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="56"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="53"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="38" t="s">
@@ -6203,11 +5963,11 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D76" s="20"/>
-      <c r="F76" s="49" t="s">
+      <c r="D76" s="9"/>
+      <c r="F76" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="51"/>
+      <c r="G76" s="48"/>
       <c r="J76" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6222,11 +5982,11 @@
       <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -6273,13 +6033,13 @@
       <c r="D84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
       <c r="J84" s="43" t="s">
         <v>147</v>
       </c>
@@ -6288,63 +6048,63 @@
       <c r="D85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E85" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="61" t="s">
+      <c r="D86" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="52" t="s">
+      <c r="E86" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="54"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="51"/>
       <c r="J86" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D87" s="62"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="56"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="53"/>
       <c r="J87" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="52" t="s">
+      <c r="E88" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="54"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
       <c r="J88" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D89" s="62"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="56"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="53"/>
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -6363,207 +6123,199 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="20"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="J91" s="9"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F92" s="49" t="s">
+      <c r="F91" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G92" s="51"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="G91" s="48"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="9"/>
+    </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="9"/>
+      <c r="D96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="37"/>
+      <c r="G96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H96" s="37"/>
+      <c r="I96" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J96" s="41" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D97" s="4" t="s">
-        <v>62</v>
+      <c r="D97" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>120</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" s="37"/>
-      <c r="I97" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J97" s="41" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="H97" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I97" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J97" s="43" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="37"/>
-      <c r="G98" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H98" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I98" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
       <c r="J98" s="43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="43" t="s">
-        <v>147</v>
-      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="9"/>
+      <c r="D100" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="41" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D101" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="53"/>
       <c r="J101" s="41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D102" s="62"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="56"/>
+      <c r="D102" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="51"/>
       <c r="J102" s="41" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D103" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E103" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="41" t="s">
-        <v>141</v>
-      </c>
+      <c r="D103" s="65"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="41"/>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D104" s="62"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="41"/>
+      <c r="D104" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="39" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="105" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D105" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="38"/>
+      <c r="F105" s="38" t="s">
+        <v>2</v>
+      </c>
       <c r="G105" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D106" s="20"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F107" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="38" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:I101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:I103"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:I74"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:I89"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:I72"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:I60"/>
     <mergeCell ref="E42:I42"/>
@@ -6577,30 +6329,24 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:I58"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:I72"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:I74"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:I89"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:I102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:I104"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6611,7 +6357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF56BAEA-CB95-4607-ABE0-9B91DB929DE5}">
   <dimension ref="A2:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6975,7 +6721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -7088,11 +6834,11 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -7100,30 +6846,30 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -7145,13 +6891,13 @@
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -7194,11 +6940,11 @@
       <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -7206,30 +6952,30 @@
       <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="56"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -7251,13 +6997,13 @@
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
@@ -7314,30 +7060,30 @@
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="E28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="56"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
@@ -7359,13 +7105,13 @@
       <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -7421,19 +7167,19 @@
       <c r="E37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="56"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -7455,13 +7201,13 @@
       <c r="E40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -7518,19 +7264,19 @@
       <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="56"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="53"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -7552,13 +7298,13 @@
       <c r="E49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -7617,19 +7363,19 @@
       <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="51"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="56"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -7651,13 +7397,13 @@
       <c r="E58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
@@ -7714,19 +7460,19 @@
       <c r="E64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="56"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
@@ -7748,13 +7494,13 @@
       <c r="E67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
@@ -7797,11 +7543,11 @@
       <c r="E72" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="48"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -7809,30 +7555,30 @@
       <c r="E73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="51"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="E74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="54"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="56"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
@@ -7854,13 +7600,13 @@
       <c r="E77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F77" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
@@ -7917,19 +7663,19 @@
       <c r="E83" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="51"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="56"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="53"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
@@ -7951,13 +7697,13 @@
       <c r="E86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
@@ -8011,19 +7757,19 @@
       <c r="E92" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="54"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="51"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="56"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="53"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -8045,13 +7791,13 @@
       <c r="E95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="59" t="s">
+      <c r="F95" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
@@ -8105,30 +7851,30 @@
       <c r="E101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="51"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="48"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="E102" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="52"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="54"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="51"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="56"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="53"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
@@ -8150,13 +7896,13 @@
       <c r="E105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="59" t="s">
+      <c r="F105" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
@@ -8172,17 +7918,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J103"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F83:J84"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F92:J93"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F46:J47"/>
@@ -8195,13 +7937,17 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F102:J103"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F83:J84"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F92:J93"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033680DD-E2BD-4C92-9C0B-0010FA74E9DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F7CDC-A9D3-4CE4-A431-A6109255546B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5197,8 +5197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FF2B99-731B-464D-987F-A1C5EFC1D70F}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Business/Khách hàng gửi/Update Case Status.xlsx
+++ b/Business/Khách hàng gửi/Update Case Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Legaltech\Business\Khách hàng gửi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F7CDC-A9D3-4CE4-A431-A6109255546B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABAA4A6-432B-4E1D-B404-042783FA8DCF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sau khi nộp đơn" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Yêu cầu từ thằng câu hỏi" sheetId="13" r:id="rId3"/>
     <sheet name="Sau khi cấp bằng" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3168,8 +3168,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3198,26 +3207,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3226,12 +3232,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4337,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,11 +4406,11 @@
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4419,21 +4419,21 @@
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -4453,18 +4453,18 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
@@ -4477,13 +4477,13 @@
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
@@ -4504,11 +4504,11 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4532,11 +4532,11 @@
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="K18" s="36" t="s">
         <v>5</v>
       </c>
@@ -4551,33 +4551,33 @@
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="K19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="56"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -4605,23 +4605,23 @@
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4661,11 +4661,11 @@
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
       <c r="K26" s="20"/>
       <c r="Q26" s="25"/>
     </row>
@@ -4676,11 +4676,11 @@
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
       <c r="K27" s="20"/>
       <c r="Q27" s="25"/>
     </row>
@@ -4688,11 +4688,11 @@
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="K28" s="8"/>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -4705,18 +4705,18 @@
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="52"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="53"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -4736,13 +4736,13 @@
       <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="34" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
@@ -4751,14 +4751,14 @@
       <c r="E34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="55" t="s">
+      <c r="S34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T34" s="56"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="47"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -4791,11 +4791,11 @@
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
@@ -4803,27 +4803,27 @@
       <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="52"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="53"/>
-      <c r="K41" s="60" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="56"/>
+      <c r="K41" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="59" t="s">
+      <c r="O41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="60"/>
+      <c r="P41" s="58"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
@@ -4840,9 +4840,9 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="K42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
+      <c r="K42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
@@ -4850,16 +4850,16 @@
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="K43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="K43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
@@ -4889,11 +4889,11 @@
       <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
@@ -4904,11 +4904,11 @@
       <c r="B49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -4923,11 +4923,11 @@
       <c r="B50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
       <c r="K50" s="20" t="s">
         <v>36</v>
       </c>
@@ -4939,19 +4939,19 @@
       <c r="B51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
       <c r="K51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
       <c r="Q51" s="25"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -4960,27 +4960,27 @@
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
       <c r="Q52" s="25"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="52"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="53"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="56"/>
       <c r="K53" s="20"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -5007,13 +5007,13 @@
       <c r="K54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="44" t="s">
+      <c r="L54" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
       <c r="Q54" s="25"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -5022,13 +5022,13 @@
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
       <c r="K55" s="20"/>
       <c r="Q55" s="25"/>
       <c r="S55" s="9"/>
@@ -5068,11 +5068,11 @@
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -5081,38 +5081,38 @@
       <c r="B60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="52"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="53"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="56"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
@@ -5132,13 +5132,13 @@
       <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" s="7" t="s">
@@ -5150,18 +5150,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S34:T35"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G63"/>
-    <mergeCell ref="O41:P43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L51:P52"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G41"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="L19:P20"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -5178,13 +5173,18 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G53"/>
     <mergeCell ref="C55:G55"/>
-    <mergeCell ref="L19:P20"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="S34:T35"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G63"/>
+    <mergeCell ref="O41:P43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L51:P52"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G41"/>
+    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5197,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FF2B99-731B-464D-987F-A1C5EFC1D70F}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
@@ -5226,11 +5226,11 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
@@ -5255,35 +5255,35 @@
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="12" t="s">
@@ -5321,11 +5321,11 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -5349,59 +5349,59 @@
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5417,11 +5417,11 @@
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5445,48 +5445,48 @@
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
       <c r="J30" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="12"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="53"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="41" t="s">
         <v>131</v>
       </c>
@@ -5495,22 +5495,22 @@
       <c r="D32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="51"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5529,11 +5529,11 @@
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5574,72 +5574,72 @@
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="65"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="53"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="65"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="53"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="41" t="s">
         <v>141</v>
       </c>
@@ -5662,10 +5662,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="48"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -5679,11 +5679,11 @@
       <c r="D52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,72 +5724,72 @@
       <c r="D55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="41"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="51"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="65"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="53"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="56"/>
       <c r="J58" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="51"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D60" s="65"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="53"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="56"/>
       <c r="J60" s="41" t="s">
         <v>141</v>
       </c>
@@ -5810,10 +5810,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="48"/>
+      <c r="G62" s="51"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -5827,11 +5827,11 @@
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -5878,74 +5878,74 @@
       <c r="D69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="51"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="54"/>
       <c r="J71" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D72" s="65"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="53"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="56"/>
       <c r="J72" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="49" t="s">
+      <c r="E73" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
       <c r="J73" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D74" s="65"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="53"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="56"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D75" s="6" t="s">
@@ -5964,10 +5964,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D76" s="9"/>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="48"/>
+      <c r="G76" s="51"/>
       <c r="J76" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -5982,11 +5982,11 @@
       <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
       <c r="J81" s="9"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -6033,13 +6033,13 @@
       <c r="D84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
       <c r="J84" s="43" t="s">
         <v>147</v>
       </c>
@@ -6048,63 +6048,63 @@
       <c r="D85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="44" t="s">
+      <c r="E85" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
       <c r="J85" s="9"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="64" t="s">
+      <c r="D86" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="51"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="54"/>
       <c r="J86" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D87" s="65"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="53"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="56"/>
       <c r="J87" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="51"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="54"/>
       <c r="J88" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D89" s="65"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="53"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="56"/>
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -6123,10 +6123,10 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G91" s="48"/>
+      <c r="G91" s="51"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -6140,11 +6140,11 @@
       <c r="D95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
       <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -6191,13 +6191,13 @@
       <c r="D98" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="43" t="s">
         <v>147</v>
       </c>
@@ -6206,63 +6206,63 @@
       <c r="D99" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D100" s="64" t="s">
+      <c r="D100" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="51"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="54"/>
       <c r="J100" s="41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D101" s="65"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="53"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="56"/>
       <c r="J101" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D102" s="64" t="s">
+      <c r="D102" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E102" s="49" t="s">
+      <c r="E102" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="51"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="54"/>
       <c r="J102" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D103" s="65"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="53"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="56"/>
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
@@ -6292,30 +6292,24 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E98:I98"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:I101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:I103"/>
-    <mergeCell ref="E95:I95"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:I74"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:I87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:I89"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:I72"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E38:I38"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:I60"/>
     <mergeCell ref="E42:I42"/>
@@ -6329,24 +6323,30 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:I58"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:I72"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:I74"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:I87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:I89"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:I101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:I103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6834,11 +6834,11 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6846,30 +6846,30 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -6891,13 +6891,13 @@
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -6940,11 +6940,11 @@
       <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -6952,30 +6952,30 @@
       <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
@@ -6997,13 +6997,13 @@
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
@@ -7060,30 +7060,30 @@
       <c r="E27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="E28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="53"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
@@ -7105,13 +7105,13 @@
       <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -7167,19 +7167,19 @@
       <c r="E37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="53"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="56"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -7201,13 +7201,13 @@
       <c r="E40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -7264,19 +7264,19 @@
       <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="53"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="56"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -7298,13 +7298,13 @@
       <c r="E49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -7363,19 +7363,19 @@
       <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="53"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -7397,13 +7397,13 @@
       <c r="E58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
@@ -7460,19 +7460,19 @@
       <c r="E64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="53"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
@@ -7494,13 +7494,13 @@
       <c r="E67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="44" t="s">
+      <c r="F67" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
@@ -7543,11 +7543,11 @@
       <c r="E72" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="48"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -7555,30 +7555,30 @@
       <c r="E73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="46"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="48"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="51"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="E74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="51"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="54"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="53"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="56"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
@@ -7600,13 +7600,13 @@
       <c r="E77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
@@ -7663,19 +7663,19 @@
       <c r="E83" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="51"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="54"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="53"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="56"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
@@ -7697,13 +7697,13 @@
       <c r="E86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
@@ -7757,19 +7757,19 @@
       <c r="E92" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F92" s="49"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="54"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="53"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="56"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -7791,13 +7791,13 @@
       <c r="E95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
@@ -7851,30 +7851,30 @@
       <c r="E101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F101" s="46"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="48"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="51"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="E102" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="51"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="54"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="53"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="56"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
@@ -7896,13 +7896,13 @@
       <c r="E105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
@@ -7918,13 +7918,17 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F102:J103"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F83:J84"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F92:J93"/>
+    <mergeCell ref="F74:J75"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F64:J65"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F55:J56"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F49:J49"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F46:J47"/>
@@ -7937,17 +7941,13 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F55:J56"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F74:J75"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F64:J65"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J103"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F83:J84"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F92:J93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
